--- a/StructureDefinition-stroke-diagnosis-condition-profile.xlsx
+++ b/StructureDefinition-stroke-diagnosis-condition-profile.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://testSK.org/StructureDefinition/stroke-diagnosis-condition-profile</t>
+    <t>http://tecnomod-um.org/StructureDefinition/stroke-diagnosis-condition-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>UMU (http://testSK.org/umu)</t>
+    <t>UMU (http://tecnomod-um.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -475,7 +475,7 @@
     <t>bleedingReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://testSK.org/StructureDefinition/hemorrhagic-stroke-bleeding-reason-ext}
+    <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/hemorrhagic-stroke-bleeding-reason-ext}
 </t>
   </si>
   <si>
@@ -491,7 +491,7 @@
     <t>ischemicEtiology</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://testSK.org/StructureDefinition/ischemic-stroke-etiology-ext}
+    <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/ischemic-stroke-etiology-ext}
 </t>
   </si>
   <si>
@@ -507,7 +507,7 @@
     <t>onsetDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://testSK.org/StructureDefinition/onset-date-ext}
+    <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/onset-date-ext}
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>onsetTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://testSK.org/StructureDefinition/onset-time-ext}
+    <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/onset-time-ext}
 </t>
   </si>
   <si>
@@ -741,7 +741,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/stroke-diagnosis-vs</t>
+    <t>http://tecnomod-um.org/ValueSet/stroke-diagnosis-vs</t>
   </si>
   <si>
     <t>FiveWs.what[x]</t>
